--- a/Ostatní/výpis hodin.xlsx
+++ b/Ostatní/výpis hodin.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>Vize, studium materiálů + její tvorba</t>
   </si>
@@ -196,18 +196,79 @@
   </si>
   <si>
     <t>Kontrola projektu</t>
+  </si>
+  <si>
+    <t>3. iterace</t>
+  </si>
+  <si>
+    <t>implementace UC</t>
+  </si>
+  <si>
+    <t>Oponentura na hospodu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagram nasazení </t>
+  </si>
+  <si>
+    <t>Sekvenční diagramy</t>
+  </si>
+  <si>
+    <t>Oprava chyb</t>
+  </si>
+  <si>
+    <t>Admin přidat uživatele</t>
+  </si>
+  <si>
+    <t>Logged user</t>
+  </si>
+  <si>
+    <t>Rozlišení uživ. Rolí</t>
+  </si>
+  <si>
+    <t>Oprava 2. iterace</t>
+  </si>
+  <si>
+    <t>Změna hesla</t>
+  </si>
+  <si>
+    <t>Přidání uživatele vytváří studenta</t>
+  </si>
+  <si>
+    <t>Finální kontrola</t>
+  </si>
+  <si>
+    <t>play zprovoznění</t>
+  </si>
+  <si>
+    <t>db model</t>
+  </si>
+  <si>
+    <t>play tutoriály</t>
+  </si>
+  <si>
+    <t>model architektury</t>
+  </si>
+  <si>
+    <t>instalační manuál</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>zpráva o impl.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,6 +317,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -397,8 +465,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -453,7 +525,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -470,6 +542,8 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -486,6 +560,8 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -815,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -866,7 +942,7 @@
       </c>
       <c r="F3" s="17">
         <f>SUM(E4:E35)</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="16" t="s">
@@ -874,7 +950,7 @@
       </c>
       <c r="I3" s="17">
         <f>SUM(H4:H34)</f>
-        <v>31.5</v>
+        <v>46.5</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="16" t="s">
@@ -882,7 +958,7 @@
       </c>
       <c r="L3" s="17">
         <f>SUM(K4:K34)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" thickTop="1">
@@ -1505,9 +1581,333 @@
       <c r="K31" s="6"/>
       <c r="L31" s="7"/>
     </row>
+    <row r="32" spans="1:12" ht="22" thickTop="1" thickBot="1">
+      <c r="A32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="17">
+        <f>SUM(B33:B40)</f>
+        <v>10</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="17">
+        <f>SUM(E33:E38)</f>
+        <v>14</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="17">
+        <f>SUM(H33:H46)</f>
+        <v>24.5</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="17">
+        <f>SUM(K33:K37)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16" thickTop="1">
+      <c r="A33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="3">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" s="3">
+        <v>4</v>
+      </c>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="3">
+        <v>5</v>
+      </c>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="8">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" ht="16" thickBot="1">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Ostatní/výpis hodin.xlsx
+++ b/Ostatní/výpis hodin.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\SIP\Ostatní\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
   <si>
     <t>Vize, studium materiálů + její tvorba</t>
   </si>
@@ -144,9 +149,6 @@
     <t>architektonický základ + javaplay</t>
   </si>
   <si>
-    <t>celkm</t>
-  </si>
-  <si>
     <t>Dokumentace</t>
   </si>
   <si>
@@ -256,6 +258,54 @@
   </si>
   <si>
     <t>zpráva o impl.</t>
+  </si>
+  <si>
+    <t>4. iterace</t>
+  </si>
+  <si>
+    <t>Implementace</t>
+  </si>
+  <si>
+    <t>VirtualBox</t>
+  </si>
+  <si>
+    <t>Ostatní práce</t>
+  </si>
+  <si>
+    <t>Úkoly základ</t>
+  </si>
+  <si>
+    <t>Zadání úkolu</t>
+  </si>
+  <si>
+    <t>Zobrazení úkolu studentům</t>
+  </si>
+  <si>
+    <t>Akceptační testy úkoly</t>
+  </si>
+  <si>
+    <t>Zpráva o implementaci</t>
+  </si>
+  <si>
+    <t>Akceptační testy administrace</t>
+  </si>
+  <si>
+    <t>Uživatelský manuál</t>
+  </si>
+  <si>
+    <t>implementace Ucs</t>
+  </si>
+  <si>
+    <t>ladění, testování</t>
+  </si>
+  <si>
+    <t>dokončení, zhodnocení</t>
+  </si>
+  <si>
+    <t>testování</t>
+  </si>
+  <si>
+    <t>Úprava modelů</t>
   </si>
 </sst>
 </file>
@@ -526,46 +576,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="37">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="36" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -891,27 +949,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,7 +984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="22" thickTop="1" thickBot="1">
+    <row r="3" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -961,7 +1020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" thickTop="1">
+    <row r="4" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -989,7 +1048,7 @@
       </c>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1076,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1047,7 +1106,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1077,7 +1136,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1107,7 +1166,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1196,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1167,7 +1226,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1244,7 @@
       <c r="I11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1266,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1229,7 +1288,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1247,7 +1306,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1265,7 +1324,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="16" thickBot="1">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1277,7 +1336,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="22" thickTop="1" thickBot="1">
+    <row r="17" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
@@ -1298,7 +1357,7 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="13" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I17" s="17">
         <f>SUM(H18:H31)</f>
@@ -1313,7 +1372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" thickTop="1">
+    <row r="18" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1322,141 +1381,141 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="3">
         <v>2</v>
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" s="3">
         <v>2</v>
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20" s="3">
         <v>3</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="8">
         <v>4</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21">
         <v>7</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" s="8">
         <v>3</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="8">
         <v>3</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22" s="8">
         <v>2</v>
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="8">
         <v>2</v>
@@ -1469,7 +1528,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1483,7 +1542,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -1497,7 +1556,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
@@ -1511,7 +1570,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -1525,7 +1584,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -1539,7 +1598,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -1553,7 +1612,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -1567,7 +1626,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="16" thickBot="1">
+    <row r="31" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -1581,9 +1640,9 @@
       <c r="K31" s="6"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="22" thickTop="1" thickBot="1">
+    <row r="32" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>8</v>
@@ -1602,7 +1661,7 @@
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="13" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I32" s="17">
         <f>SUM(H33:H46)</f>
@@ -1617,161 +1676,161 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="16" thickTop="1">
+    <row r="33" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="3">
         <v>8</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3">
         <v>4</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H33">
         <v>10</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
       </c>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="3">
         <v>3</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H34">
         <v>5</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K34" s="3">
         <v>4</v>
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="3">
         <v>3</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K35" s="3">
         <v>5</v>
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="8">
         <v>1</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36" s="8">
         <v>1</v>
       </c>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="8">
         <v>1</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37">
         <v>0.5</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K37" s="8">
         <v>1</v>
       </c>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" s="8">
         <v>2</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" s="3">
         <v>0.5</v>
@@ -1781,19 +1840,19 @@
       <c r="K38" s="3"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="8">
         <v>1</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H39" s="8">
         <v>0.5</v>
@@ -1803,7 +1862,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -1817,7 +1876,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -1831,7 +1890,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -1845,7 +1904,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -1859,7 +1918,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -1873,7 +1932,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
@@ -1887,7 +1946,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="16" thickBot="1">
+    <row r="46" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -1901,10 +1960,318 @@
       <c r="K46" s="6"/>
       <c r="L46" s="7"/>
     </row>
+    <row r="47" spans="1:12" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="17">
+        <f>SUM(B48:B55)</f>
+        <v>15</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="17">
+        <f>SUM(E48:E54)</f>
+        <v>18</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="17">
+        <f>SUM(H48:H61)</f>
+        <v>14</v>
+      </c>
+      <c r="J47" s="11"/>
+      <c r="K47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="17">
+        <f>SUM(K48:K53)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="3">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K48" s="3">
+        <v>2</v>
+      </c>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="3">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="3">
+        <v>2</v>
+      </c>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="3">
+        <v>4</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K50" s="3">
+        <v>4</v>
+      </c>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="8">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="8">
+        <v>2</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" s="8">
+        <v>1</v>
+      </c>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="8">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K52" s="8">
+        <v>4</v>
+      </c>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="8">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="8">
+        <v>1</v>
+      </c>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="8">
+        <v>2</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="12" max="1048575" man="1"/>
   </colBreaks>
